--- a/ДЗ/ДЗ-24-01-25/Task-19-21.xlsx
+++ b/ДЗ/ДЗ-24-01-25/Task-19-21.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aziz0\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aziz0\Documents\Main\ege\ДЗ\ДЗ-24-01-25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04070551-671F-400C-8677-3CCE58B9FD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24EC922-55E3-4AE9-81AE-2FC3700DB9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6358A89C-4721-45E5-889C-5E579355FD06}"/>
   </bookViews>
@@ -323,22 +323,7 @@
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -357,6 +342,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D80E4E-48B5-4246-910E-C6A9B9279B3B}">
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,76 +694,76 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4" t="s">
+      <c r="H1" s="21"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="6" t="s">
+      <c r="K1" s="23"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="3"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20</v>
       </c>
       <c r="B2">
-        <v>66</v>
-      </c>
-      <c r="C2" s="7">
+        <v>138</v>
+      </c>
+      <c r="C2" s="2">
         <f>A2</f>
         <v>20</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="3">
         <f>B2+3</f>
-        <v>69</v>
-      </c>
-      <c r="E2" s="9">
+        <v>141</v>
+      </c>
+      <c r="E2" s="4">
         <f>C2+3</f>
         <v>23</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="3">
         <f>D2</f>
-        <v>69</v>
-      </c>
-      <c r="G2" s="8">
+        <v>141</v>
+      </c>
+      <c r="G2" s="3">
         <f>E2+3</f>
         <v>26</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="3">
         <f>F2</f>
-        <v>69</v>
-      </c>
-      <c r="I2" s="10">
+        <v>141</v>
+      </c>
+      <c r="I2" s="5">
         <f>SUM(G2:H2)</f>
-        <v>95</v>
-      </c>
-      <c r="J2" s="8">
+        <v>167</v>
+      </c>
+      <c r="J2" s="3">
         <f>MIN(G2:H2)</f>
         <v>26</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="3">
         <f>MAX(G2:H2)*2</f>
-        <v>138</v>
-      </c>
-      <c r="L2" s="11">
+        <v>282</v>
+      </c>
+      <c r="L2" s="6">
         <f>SUM(J2:K2)</f>
-        <v>164</v>
+        <v>308</v>
       </c>
       <c r="M2">
         <f>MIN(J2:K2)</f>
@@ -771,27 +771,27 @@
       </c>
       <c r="N2">
         <f>MAX(J2:K2)*2</f>
-        <v>276</v>
-      </c>
-      <c r="O2" s="12">
+        <v>564</v>
+      </c>
+      <c r="O2" s="7">
         <f>SUM(M2:N2)</f>
-        <v>302</v>
+        <v>590</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="13"/>
-      <c r="E3" s="14"/>
+      <c r="C3" s="8"/>
+      <c r="E3" s="9"/>
       <c r="G3">
         <f>E2*2</f>
         <v>46</v>
       </c>
       <c r="H3">
         <f>F2</f>
-        <v>69</v>
-      </c>
-      <c r="I3" s="12">
+        <v>141</v>
+      </c>
+      <c r="I3" s="7">
         <f t="shared" ref="I3:I17" si="0">SUM(G3:H3)</f>
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J17" si="1">MIN(G3:H3)</f>
@@ -799,11 +799,11 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K17" si="2">MAX(G3:H3)*2</f>
-        <v>138</v>
-      </c>
-      <c r="L3" s="15">
+        <v>282</v>
+      </c>
+      <c r="L3" s="10">
         <f t="shared" ref="L3:L17" si="3">SUM(J3:K3)</f>
-        <v>184</v>
+        <v>328</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M65" si="4">MIN(J3:K3)</f>
@@ -811,27 +811,27 @@
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N65" si="5">MAX(J3:K3)*2</f>
-        <v>276</v>
-      </c>
-      <c r="O3" s="12">
+        <v>564</v>
+      </c>
+      <c r="O3" s="7">
         <f t="shared" ref="O3:O65" si="6">SUM(M3:N3)</f>
-        <v>322</v>
+        <v>610</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="13"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="8"/>
+      <c r="E4" s="9"/>
       <c r="G4">
         <f>E2</f>
         <v>23</v>
       </c>
       <c r="H4">
         <f>F2+3</f>
-        <v>72</v>
-      </c>
-      <c r="I4" s="12">
+        <v>144</v>
+      </c>
+      <c r="I4" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
@@ -839,11 +839,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="2"/>
-        <v>144</v>
-      </c>
-      <c r="L4" s="15">
+        <v>288</v>
+      </c>
+      <c r="L4" s="10">
         <f t="shared" si="3"/>
-        <v>167</v>
+        <v>311</v>
       </c>
       <c r="M4">
         <f t="shared" si="4"/>
@@ -851,28 +851,28 @@
       </c>
       <c r="N4">
         <f t="shared" si="5"/>
-        <v>288</v>
-      </c>
-      <c r="O4" s="12">
-        <f t="shared" si="6"/>
-        <v>311</v>
+        <v>576</v>
+      </c>
+      <c r="O4" s="7">
+        <f t="shared" si="6"/>
+        <v>599</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="13"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17">
+      <c r="C5" s="8"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12">
         <f>E2</f>
         <v>23</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="12">
         <f>F2*2</f>
-        <v>138</v>
-      </c>
-      <c r="I5" s="12">
+        <v>282</v>
+      </c>
+      <c r="I5" s="7">
         <f t="shared" si="0"/>
-        <v>161</v>
+        <v>305</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
@@ -880,11 +880,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="2"/>
-        <v>276</v>
-      </c>
-      <c r="L5" s="15">
+        <v>564</v>
+      </c>
+      <c r="L5" s="10">
         <f t="shared" si="3"/>
-        <v>299</v>
+        <v>587</v>
       </c>
       <c r="M5">
         <f t="shared" si="4"/>
@@ -892,34 +892,34 @@
       </c>
       <c r="N5">
         <f t="shared" si="5"/>
-        <v>552</v>
-      </c>
-      <c r="O5" s="12">
-        <f t="shared" si="6"/>
-        <v>575</v>
+        <v>1128</v>
+      </c>
+      <c r="O5" s="7">
+        <f t="shared" si="6"/>
+        <v>1151</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="13"/>
-      <c r="E6" s="18">
+      <c r="C6" s="8"/>
+      <c r="E6" s="13">
         <f>C2*2</f>
         <v>40</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="14">
         <f>D2</f>
-        <v>69</v>
-      </c>
-      <c r="G6" s="19">
+        <v>141</v>
+      </c>
+      <c r="G6" s="14">
         <f>E6+3</f>
         <v>43</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="14">
         <f>F6</f>
-        <v>69</v>
-      </c>
-      <c r="I6" s="12">
+        <v>141</v>
+      </c>
+      <c r="I6" s="7">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
@@ -927,11 +927,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="2"/>
-        <v>138</v>
-      </c>
-      <c r="L6" s="15">
+        <v>282</v>
+      </c>
+      <c r="L6" s="10">
         <f t="shared" si="3"/>
-        <v>181</v>
+        <v>325</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
@@ -939,67 +939,67 @@
       </c>
       <c r="N6">
         <f t="shared" si="5"/>
-        <v>276</v>
-      </c>
-      <c r="O6" s="12">
-        <f t="shared" si="6"/>
-        <v>319</v>
+        <v>564</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" si="6"/>
+        <v>607</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C7" s="13"/>
-      <c r="E7" s="14"/>
+      <c r="C7" s="8"/>
+      <c r="E7" s="9"/>
       <c r="G7">
         <f>E6*2</f>
         <v>80</v>
       </c>
       <c r="H7">
         <f>F6</f>
-        <v>69</v>
-      </c>
-      <c r="I7" s="12">
+        <v>141</v>
+      </c>
+      <c r="I7" s="7">
         <f t="shared" si="0"/>
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="K7">
         <f t="shared" si="2"/>
-        <v>160</v>
-      </c>
-      <c r="L7" s="15">
+        <v>282</v>
+      </c>
+      <c r="L7" s="10">
         <f t="shared" si="3"/>
-        <v>229</v>
+        <v>362</v>
       </c>
       <c r="M7">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
-        <v>320</v>
-      </c>
-      <c r="O7" s="12">
-        <f t="shared" si="6"/>
-        <v>389</v>
+        <v>564</v>
+      </c>
+      <c r="O7" s="7">
+        <f t="shared" si="6"/>
+        <v>644</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="13"/>
-      <c r="E8" s="14"/>
+      <c r="C8" s="8"/>
+      <c r="E8" s="9"/>
       <c r="G8">
         <f>E6</f>
         <v>40</v>
       </c>
       <c r="H8">
         <f>F6+3</f>
-        <v>72</v>
-      </c>
-      <c r="I8" s="12">
+        <v>144</v>
+      </c>
+      <c r="I8" s="7">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
@@ -1007,11 +1007,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="2"/>
-        <v>144</v>
-      </c>
-      <c r="L8" s="15">
+        <v>288</v>
+      </c>
+      <c r="L8" s="10">
         <f t="shared" si="3"/>
-        <v>184</v>
+        <v>328</v>
       </c>
       <c r="M8">
         <f t="shared" si="4"/>
@@ -1019,28 +1019,28 @@
       </c>
       <c r="N8">
         <f t="shared" si="5"/>
-        <v>288</v>
-      </c>
-      <c r="O8" s="12">
-        <f t="shared" si="6"/>
-        <v>328</v>
+        <v>576</v>
+      </c>
+      <c r="O8" s="7">
+        <f t="shared" si="6"/>
+        <v>616</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C9" s="13"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17">
+      <c r="C9" s="8"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12">
         <f>E6</f>
         <v>40</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="12">
         <f>F6*2</f>
-        <v>138</v>
-      </c>
-      <c r="I9" s="12">
+        <v>282</v>
+      </c>
+      <c r="I9" s="7">
         <f t="shared" si="0"/>
-        <v>178</v>
+        <v>322</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
@@ -1048,11 +1048,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="2"/>
-        <v>276</v>
-      </c>
-      <c r="L9" s="15">
+        <v>564</v>
+      </c>
+      <c r="L9" s="10">
         <f t="shared" si="3"/>
-        <v>316</v>
+        <v>604</v>
       </c>
       <c r="M9">
         <f t="shared" si="4"/>
@@ -1060,34 +1060,34 @@
       </c>
       <c r="N9">
         <f t="shared" si="5"/>
-        <v>552</v>
-      </c>
-      <c r="O9" s="12">
-        <f t="shared" si="6"/>
-        <v>592</v>
+        <v>1128</v>
+      </c>
+      <c r="O9" s="7">
+        <f t="shared" si="6"/>
+        <v>1168</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="13"/>
-      <c r="E10" s="18">
+      <c r="C10" s="8"/>
+      <c r="E10" s="13">
         <f>C2</f>
         <v>20</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="14">
         <f>D2+3</f>
-        <v>72</v>
-      </c>
-      <c r="G10" s="19">
+        <v>144</v>
+      </c>
+      <c r="G10" s="14">
         <f>E10+3</f>
         <v>23</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="14">
         <f>F10</f>
-        <v>72</v>
-      </c>
-      <c r="I10" s="12">
+        <v>144</v>
+      </c>
+      <c r="I10" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="2"/>
-        <v>144</v>
-      </c>
-      <c r="L10" s="15">
+        <v>288</v>
+      </c>
+      <c r="L10" s="10">
         <f t="shared" si="3"/>
-        <v>167</v>
+        <v>311</v>
       </c>
       <c r="M10">
         <f t="shared" si="4"/>
@@ -1107,27 +1107,27 @@
       </c>
       <c r="N10">
         <f t="shared" si="5"/>
-        <v>288</v>
-      </c>
-      <c r="O10" s="12">
-        <f t="shared" si="6"/>
-        <v>311</v>
+        <v>576</v>
+      </c>
+      <c r="O10" s="7">
+        <f t="shared" si="6"/>
+        <v>599</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="13"/>
-      <c r="E11" s="14"/>
+      <c r="C11" s="8"/>
+      <c r="E11" s="9"/>
       <c r="G11">
         <f>E10*2</f>
         <v>40</v>
       </c>
       <c r="H11">
         <f>F10</f>
-        <v>72</v>
-      </c>
-      <c r="I11" s="12">
+        <v>144</v>
+      </c>
+      <c r="I11" s="7">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
@@ -1135,11 +1135,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="2"/>
-        <v>144</v>
-      </c>
-      <c r="L11" s="15">
+        <v>288</v>
+      </c>
+      <c r="L11" s="10">
         <f t="shared" si="3"/>
-        <v>184</v>
+        <v>328</v>
       </c>
       <c r="M11">
         <f t="shared" si="4"/>
@@ -1147,27 +1147,27 @@
       </c>
       <c r="N11">
         <f t="shared" si="5"/>
-        <v>288</v>
-      </c>
-      <c r="O11" s="12">
-        <f t="shared" si="6"/>
-        <v>328</v>
+        <v>576</v>
+      </c>
+      <c r="O11" s="7">
+        <f t="shared" si="6"/>
+        <v>616</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C12" s="13"/>
-      <c r="E12" s="14"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="9"/>
       <c r="G12">
         <f>E10</f>
         <v>20</v>
       </c>
       <c r="H12">
         <f>F10+3</f>
-        <v>75</v>
-      </c>
-      <c r="I12" s="12">
+        <v>147</v>
+      </c>
+      <c r="I12" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
@@ -1175,11 +1175,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="L12" s="15">
+        <v>294</v>
+      </c>
+      <c r="L12" s="10">
         <f t="shared" si="3"/>
-        <v>170</v>
+        <v>314</v>
       </c>
       <c r="M12">
         <f t="shared" si="4"/>
@@ -1187,28 +1187,28 @@
       </c>
       <c r="N12">
         <f t="shared" si="5"/>
-        <v>300</v>
-      </c>
-      <c r="O12" s="12">
-        <f t="shared" si="6"/>
-        <v>320</v>
+        <v>588</v>
+      </c>
+      <c r="O12" s="7">
+        <f t="shared" si="6"/>
+        <v>608</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C13" s="13"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17">
+      <c r="C13" s="8"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12">
         <f>E10</f>
         <v>20</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="12">
         <f>F10*2</f>
-        <v>144</v>
-      </c>
-      <c r="I13" s="12">
+        <v>288</v>
+      </c>
+      <c r="I13" s="7">
         <f t="shared" si="0"/>
-        <v>164</v>
+        <v>308</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
@@ -1216,11 +1216,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="2"/>
-        <v>288</v>
-      </c>
-      <c r="L13" s="15">
+        <v>576</v>
+      </c>
+      <c r="L13" s="10">
         <f t="shared" si="3"/>
-        <v>308</v>
+        <v>596</v>
       </c>
       <c r="M13">
         <f t="shared" si="4"/>
@@ -1228,34 +1228,34 @@
       </c>
       <c r="N13">
         <f t="shared" si="5"/>
-        <v>576</v>
-      </c>
-      <c r="O13" s="12">
-        <f t="shared" si="6"/>
-        <v>596</v>
+        <v>1152</v>
+      </c>
+      <c r="O13" s="7">
+        <f t="shared" si="6"/>
+        <v>1172</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="13"/>
-      <c r="E14" s="18">
+      <c r="C14" s="8"/>
+      <c r="E14" s="13">
         <f>C2</f>
         <v>20</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="14">
         <f>D2*2</f>
-        <v>138</v>
-      </c>
-      <c r="G14" s="19">
+        <v>282</v>
+      </c>
+      <c r="G14" s="14">
         <f>E14+3</f>
         <v>23</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="14">
         <f>F14</f>
-        <v>138</v>
-      </c>
-      <c r="I14" s="12">
+        <v>282</v>
+      </c>
+      <c r="I14" s="7">
         <f t="shared" si="0"/>
-        <v>161</v>
+        <v>305</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
@@ -1263,11 +1263,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="2"/>
-        <v>276</v>
-      </c>
-      <c r="L14" s="15">
+        <v>564</v>
+      </c>
+      <c r="L14" s="10">
         <f t="shared" si="3"/>
-        <v>299</v>
+        <v>587</v>
       </c>
       <c r="M14">
         <f t="shared" si="4"/>
@@ -1275,27 +1275,27 @@
       </c>
       <c r="N14">
         <f t="shared" si="5"/>
-        <v>552</v>
-      </c>
-      <c r="O14" s="12">
-        <f t="shared" si="6"/>
-        <v>575</v>
+        <v>1128</v>
+      </c>
+      <c r="O14" s="7">
+        <f t="shared" si="6"/>
+        <v>1151</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="13"/>
-      <c r="E15" s="14"/>
+      <c r="C15" s="8"/>
+      <c r="E15" s="9"/>
       <c r="G15">
         <f>E14*2</f>
         <v>40</v>
       </c>
       <c r="H15">
         <f>F14</f>
-        <v>138</v>
-      </c>
-      <c r="I15" s="12">
+        <v>282</v>
+      </c>
+      <c r="I15" s="7">
         <f t="shared" si="0"/>
-        <v>178</v>
+        <v>322</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
@@ -1303,11 +1303,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="2"/>
-        <v>276</v>
-      </c>
-      <c r="L15" s="15">
+        <v>564</v>
+      </c>
+      <c r="L15" s="10">
         <f t="shared" si="3"/>
-        <v>316</v>
+        <v>604</v>
       </c>
       <c r="M15">
         <f t="shared" si="4"/>
@@ -1315,27 +1315,27 @@
       </c>
       <c r="N15">
         <f t="shared" si="5"/>
-        <v>552</v>
-      </c>
-      <c r="O15" s="12">
-        <f t="shared" si="6"/>
-        <v>592</v>
+        <v>1128</v>
+      </c>
+      <c r="O15" s="7">
+        <f t="shared" si="6"/>
+        <v>1168</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C16" s="13"/>
-      <c r="E16" s="14"/>
+      <c r="C16" s="8"/>
+      <c r="E16" s="9"/>
       <c r="G16">
         <f>E14</f>
         <v>20</v>
       </c>
       <c r="H16">
         <f>F14+3</f>
-        <v>141</v>
-      </c>
-      <c r="I16" s="12">
+        <v>285</v>
+      </c>
+      <c r="I16" s="7">
         <f t="shared" si="0"/>
-        <v>161</v>
+        <v>305</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
@@ -1343,11 +1343,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="2"/>
-        <v>282</v>
-      </c>
-      <c r="L16" s="15">
+        <v>570</v>
+      </c>
+      <c r="L16" s="10">
         <f t="shared" si="3"/>
-        <v>302</v>
+        <v>590</v>
       </c>
       <c r="M16">
         <f t="shared" si="4"/>
@@ -1355,41 +1355,41 @@
       </c>
       <c r="N16">
         <f t="shared" si="5"/>
-        <v>564</v>
-      </c>
-      <c r="O16" s="12">
-        <f t="shared" si="6"/>
-        <v>584</v>
+        <v>1140</v>
+      </c>
+      <c r="O16" s="7">
+        <f t="shared" si="6"/>
+        <v>1160</v>
       </c>
     </row>
     <row r="17" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21">
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16">
         <f>E14</f>
         <v>20</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="16">
         <f>F14*2</f>
-        <v>276</v>
-      </c>
-      <c r="I17" s="23">
+        <v>564</v>
+      </c>
+      <c r="I17" s="18">
         <f t="shared" si="0"/>
-        <v>296</v>
-      </c>
-      <c r="J17" s="21">
+        <v>584</v>
+      </c>
+      <c r="J17" s="16">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="16">
         <f t="shared" si="2"/>
-        <v>552</v>
-      </c>
-      <c r="L17" s="24">
+        <v>1128</v>
+      </c>
+      <c r="L17" s="19">
         <f t="shared" si="3"/>
-        <v>572</v>
+        <v>1148</v>
       </c>
       <c r="M17">
         <f t="shared" si="4"/>
@@ -1397,53 +1397,53 @@
       </c>
       <c r="N17">
         <f t="shared" si="5"/>
-        <v>1104</v>
-      </c>
-      <c r="O17" s="12">
-        <f t="shared" si="6"/>
-        <v>1124</v>
+        <v>2256</v>
+      </c>
+      <c r="O17" s="7">
+        <f t="shared" si="6"/>
+        <v>2276</v>
       </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C18" s="7">
+      <c r="C18" s="2">
         <f>A2</f>
         <v>20</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="3">
         <f>B2*2</f>
-        <v>132</v>
-      </c>
-      <c r="E18" s="9">
+        <v>276</v>
+      </c>
+      <c r="E18" s="4">
         <f>C18+3</f>
         <v>23</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="3">
         <f>D18</f>
-        <v>132</v>
-      </c>
-      <c r="G18" s="8">
+        <v>276</v>
+      </c>
+      <c r="G18" s="3">
         <f>E18+3</f>
         <v>26</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="3">
         <f>F18</f>
-        <v>132</v>
-      </c>
-      <c r="I18" s="10">
+        <v>276</v>
+      </c>
+      <c r="I18" s="5">
         <f>SUM(G18:H18)</f>
-        <v>158</v>
-      </c>
-      <c r="J18" s="8">
+        <v>302</v>
+      </c>
+      <c r="J18" s="3">
         <f>MIN(G18:H18)</f>
         <v>26</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="3">
         <f>MAX(G18:H18)*2</f>
-        <v>264</v>
-      </c>
-      <c r="L18" s="11">
+        <v>552</v>
+      </c>
+      <c r="L18" s="6">
         <f>SUM(J18:K18)</f>
-        <v>290</v>
+        <v>578</v>
       </c>
       <c r="M18">
         <f t="shared" si="4"/>
@@ -1451,27 +1451,27 @@
       </c>
       <c r="N18">
         <f t="shared" si="5"/>
-        <v>528</v>
-      </c>
-      <c r="O18" s="12">
-        <f t="shared" si="6"/>
-        <v>554</v>
+        <v>1104</v>
+      </c>
+      <c r="O18" s="7">
+        <f t="shared" si="6"/>
+        <v>1130</v>
       </c>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="13"/>
-      <c r="E19" s="14"/>
+      <c r="C19" s="8"/>
+      <c r="E19" s="9"/>
       <c r="G19">
         <f>E18*2</f>
         <v>46</v>
       </c>
       <c r="H19">
         <f>F18</f>
-        <v>132</v>
-      </c>
-      <c r="I19" s="12">
+        <v>276</v>
+      </c>
+      <c r="I19" s="7">
         <f t="shared" ref="I19:I33" si="7">SUM(G19:H19)</f>
-        <v>178</v>
+        <v>322</v>
       </c>
       <c r="J19">
         <f t="shared" ref="J19:J33" si="8">MIN(G19:H19)</f>
@@ -1479,11 +1479,11 @@
       </c>
       <c r="K19">
         <f t="shared" ref="K19:K33" si="9">MAX(G19:H19)*2</f>
-        <v>264</v>
-      </c>
-      <c r="L19" s="15">
+        <v>552</v>
+      </c>
+      <c r="L19" s="10">
         <f t="shared" ref="L19:L33" si="10">SUM(J19:K19)</f>
-        <v>310</v>
+        <v>598</v>
       </c>
       <c r="M19">
         <f t="shared" si="4"/>
@@ -1491,27 +1491,27 @@
       </c>
       <c r="N19">
         <f t="shared" si="5"/>
-        <v>528</v>
-      </c>
-      <c r="O19" s="12">
-        <f t="shared" si="6"/>
-        <v>574</v>
+        <v>1104</v>
+      </c>
+      <c r="O19" s="7">
+        <f t="shared" si="6"/>
+        <v>1150</v>
       </c>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C20" s="13"/>
-      <c r="E20" s="14"/>
+      <c r="C20" s="8"/>
+      <c r="E20" s="9"/>
       <c r="G20">
         <f>E18</f>
         <v>23</v>
       </c>
       <c r="H20">
         <f>F18+3</f>
-        <v>135</v>
-      </c>
-      <c r="I20" s="12">
+        <v>279</v>
+      </c>
+      <c r="I20" s="7">
         <f t="shared" si="7"/>
-        <v>158</v>
+        <v>302</v>
       </c>
       <c r="J20">
         <f t="shared" si="8"/>
@@ -1519,11 +1519,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="9"/>
-        <v>270</v>
-      </c>
-      <c r="L20" s="15">
+        <v>558</v>
+      </c>
+      <c r="L20" s="10">
         <f t="shared" si="10"/>
-        <v>293</v>
+        <v>581</v>
       </c>
       <c r="M20">
         <f t="shared" si="4"/>
@@ -1531,28 +1531,28 @@
       </c>
       <c r="N20">
         <f t="shared" si="5"/>
-        <v>540</v>
-      </c>
-      <c r="O20" s="12">
-        <f t="shared" si="6"/>
-        <v>563</v>
+        <v>1116</v>
+      </c>
+      <c r="O20" s="7">
+        <f t="shared" si="6"/>
+        <v>1139</v>
       </c>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="13"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17">
+      <c r="C21" s="8"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12">
         <f>E18</f>
         <v>23</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="12">
         <f>F18*2</f>
-        <v>264</v>
-      </c>
-      <c r="I21" s="12">
+        <v>552</v>
+      </c>
+      <c r="I21" s="7">
         <f t="shared" si="7"/>
-        <v>287</v>
+        <v>575</v>
       </c>
       <c r="J21">
         <f t="shared" si="8"/>
@@ -1560,11 +1560,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="9"/>
-        <v>528</v>
-      </c>
-      <c r="L21" s="15">
+        <v>1104</v>
+      </c>
+      <c r="L21" s="10">
         <f t="shared" si="10"/>
-        <v>551</v>
+        <v>1127</v>
       </c>
       <c r="M21">
         <f t="shared" si="4"/>
@@ -1572,34 +1572,34 @@
       </c>
       <c r="N21">
         <f t="shared" si="5"/>
-        <v>1056</v>
-      </c>
-      <c r="O21" s="12">
-        <f t="shared" si="6"/>
-        <v>1079</v>
+        <v>2208</v>
+      </c>
+      <c r="O21" s="7">
+        <f t="shared" si="6"/>
+        <v>2231</v>
       </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="13"/>
-      <c r="E22" s="18">
+      <c r="C22" s="8"/>
+      <c r="E22" s="13">
         <f>C18*2</f>
         <v>40</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="14">
         <f>D18</f>
-        <v>132</v>
-      </c>
-      <c r="G22" s="19">
+        <v>276</v>
+      </c>
+      <c r="G22" s="14">
         <f>E22+3</f>
         <v>43</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="14">
         <f>F22</f>
-        <v>132</v>
-      </c>
-      <c r="I22" s="12">
+        <v>276</v>
+      </c>
+      <c r="I22" s="7">
         <f t="shared" si="7"/>
-        <v>175</v>
+        <v>319</v>
       </c>
       <c r="J22">
         <f t="shared" si="8"/>
@@ -1607,11 +1607,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="9"/>
-        <v>264</v>
-      </c>
-      <c r="L22" s="15">
+        <v>552</v>
+      </c>
+      <c r="L22" s="10">
         <f t="shared" si="10"/>
-        <v>307</v>
+        <v>595</v>
       </c>
       <c r="M22">
         <f t="shared" si="4"/>
@@ -1619,27 +1619,27 @@
       </c>
       <c r="N22">
         <f t="shared" si="5"/>
-        <v>528</v>
-      </c>
-      <c r="O22" s="12">
-        <f t="shared" si="6"/>
-        <v>571</v>
+        <v>1104</v>
+      </c>
+      <c r="O22" s="7">
+        <f t="shared" si="6"/>
+        <v>1147</v>
       </c>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="13"/>
-      <c r="E23" s="14"/>
+      <c r="C23" s="8"/>
+      <c r="E23" s="9"/>
       <c r="G23">
         <f>E22*2</f>
         <v>80</v>
       </c>
       <c r="H23">
         <f>F22</f>
-        <v>132</v>
-      </c>
-      <c r="I23" s="12">
+        <v>276</v>
+      </c>
+      <c r="I23" s="7">
         <f t="shared" si="7"/>
-        <v>212</v>
+        <v>356</v>
       </c>
       <c r="J23">
         <f t="shared" si="8"/>
@@ -1647,11 +1647,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="9"/>
-        <v>264</v>
-      </c>
-      <c r="L23" s="15">
+        <v>552</v>
+      </c>
+      <c r="L23" s="10">
         <f t="shared" si="10"/>
-        <v>344</v>
+        <v>632</v>
       </c>
       <c r="M23">
         <f t="shared" si="4"/>
@@ -1659,27 +1659,27 @@
       </c>
       <c r="N23">
         <f t="shared" si="5"/>
-        <v>528</v>
-      </c>
-      <c r="O23" s="12">
-        <f t="shared" si="6"/>
-        <v>608</v>
+        <v>1104</v>
+      </c>
+      <c r="O23" s="7">
+        <f t="shared" si="6"/>
+        <v>1184</v>
       </c>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C24" s="13"/>
-      <c r="E24" s="14"/>
+      <c r="C24" s="8"/>
+      <c r="E24" s="9"/>
       <c r="G24">
         <f>E22</f>
         <v>40</v>
       </c>
       <c r="H24">
         <f>F22+3</f>
-        <v>135</v>
-      </c>
-      <c r="I24" s="12">
+        <v>279</v>
+      </c>
+      <c r="I24" s="7">
         <f t="shared" si="7"/>
-        <v>175</v>
+        <v>319</v>
       </c>
       <c r="J24">
         <f t="shared" si="8"/>
@@ -1687,11 +1687,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="9"/>
-        <v>270</v>
-      </c>
-      <c r="L24" s="15">
+        <v>558</v>
+      </c>
+      <c r="L24" s="10">
         <f t="shared" si="10"/>
-        <v>310</v>
+        <v>598</v>
       </c>
       <c r="M24">
         <f t="shared" si="4"/>
@@ -1699,28 +1699,28 @@
       </c>
       <c r="N24">
         <f t="shared" si="5"/>
-        <v>540</v>
-      </c>
-      <c r="O24" s="12">
-        <f t="shared" si="6"/>
-        <v>580</v>
+        <v>1116</v>
+      </c>
+      <c r="O24" s="7">
+        <f t="shared" si="6"/>
+        <v>1156</v>
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C25" s="13"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17">
+      <c r="C25" s="8"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12">
         <f>E22</f>
         <v>40</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="12">
         <f>F22*2</f>
-        <v>264</v>
-      </c>
-      <c r="I25" s="12">
+        <v>552</v>
+      </c>
+      <c r="I25" s="7">
         <f t="shared" si="7"/>
-        <v>304</v>
+        <v>592</v>
       </c>
       <c r="J25">
         <f t="shared" si="8"/>
@@ -1728,11 +1728,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="9"/>
-        <v>528</v>
-      </c>
-      <c r="L25" s="15">
+        <v>1104</v>
+      </c>
+      <c r="L25" s="10">
         <f t="shared" si="10"/>
-        <v>568</v>
+        <v>1144</v>
       </c>
       <c r="M25">
         <f t="shared" si="4"/>
@@ -1740,34 +1740,34 @@
       </c>
       <c r="N25">
         <f t="shared" si="5"/>
-        <v>1056</v>
-      </c>
-      <c r="O25" s="12">
-        <f t="shared" si="6"/>
-        <v>1096</v>
+        <v>2208</v>
+      </c>
+      <c r="O25" s="7">
+        <f t="shared" si="6"/>
+        <v>2248</v>
       </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C26" s="13"/>
-      <c r="E26" s="18">
+      <c r="C26" s="8"/>
+      <c r="E26" s="13">
         <f>C18</f>
         <v>20</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="14">
         <f>D18+3</f>
-        <v>135</v>
-      </c>
-      <c r="G26" s="19">
+        <v>279</v>
+      </c>
+      <c r="G26" s="14">
         <f>E26+3</f>
         <v>23</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="14">
         <f>F26</f>
-        <v>135</v>
-      </c>
-      <c r="I26" s="12">
+        <v>279</v>
+      </c>
+      <c r="I26" s="7">
         <f t="shared" si="7"/>
-        <v>158</v>
+        <v>302</v>
       </c>
       <c r="J26">
         <f t="shared" si="8"/>
@@ -1775,11 +1775,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="9"/>
-        <v>270</v>
-      </c>
-      <c r="L26" s="15">
+        <v>558</v>
+      </c>
+      <c r="L26" s="10">
         <f t="shared" si="10"/>
-        <v>293</v>
+        <v>581</v>
       </c>
       <c r="M26">
         <f t="shared" si="4"/>
@@ -1787,27 +1787,27 @@
       </c>
       <c r="N26">
         <f t="shared" si="5"/>
-        <v>540</v>
-      </c>
-      <c r="O26" s="12">
-        <f t="shared" si="6"/>
-        <v>563</v>
+        <v>1116</v>
+      </c>
+      <c r="O26" s="7">
+        <f t="shared" si="6"/>
+        <v>1139</v>
       </c>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C27" s="13"/>
-      <c r="E27" s="14"/>
+      <c r="C27" s="8"/>
+      <c r="E27" s="9"/>
       <c r="G27">
         <f>E26*2</f>
         <v>40</v>
       </c>
       <c r="H27">
         <f>F26</f>
-        <v>135</v>
-      </c>
-      <c r="I27" s="12">
+        <v>279</v>
+      </c>
+      <c r="I27" s="7">
         <f t="shared" si="7"/>
-        <v>175</v>
+        <v>319</v>
       </c>
       <c r="J27">
         <f t="shared" si="8"/>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="9"/>
-        <v>270</v>
-      </c>
-      <c r="L27" s="15">
+        <v>558</v>
+      </c>
+      <c r="L27" s="10">
         <f t="shared" si="10"/>
-        <v>310</v>
+        <v>598</v>
       </c>
       <c r="M27">
         <f t="shared" si="4"/>
@@ -1827,27 +1827,27 @@
       </c>
       <c r="N27">
         <f t="shared" si="5"/>
-        <v>540</v>
-      </c>
-      <c r="O27" s="12">
-        <f t="shared" si="6"/>
-        <v>580</v>
+        <v>1116</v>
+      </c>
+      <c r="O27" s="7">
+        <f t="shared" si="6"/>
+        <v>1156</v>
       </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C28" s="13"/>
-      <c r="E28" s="14"/>
+      <c r="C28" s="8"/>
+      <c r="E28" s="9"/>
       <c r="G28">
         <f>E26</f>
         <v>20</v>
       </c>
       <c r="H28">
         <f>F26+3</f>
-        <v>138</v>
-      </c>
-      <c r="I28" s="12">
+        <v>282</v>
+      </c>
+      <c r="I28" s="7">
         <f t="shared" si="7"/>
-        <v>158</v>
+        <v>302</v>
       </c>
       <c r="J28">
         <f t="shared" si="8"/>
@@ -1855,11 +1855,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="9"/>
-        <v>276</v>
-      </c>
-      <c r="L28" s="15">
+        <v>564</v>
+      </c>
+      <c r="L28" s="10">
         <f t="shared" si="10"/>
-        <v>296</v>
+        <v>584</v>
       </c>
       <c r="M28">
         <f t="shared" si="4"/>
@@ -1867,28 +1867,28 @@
       </c>
       <c r="N28">
         <f t="shared" si="5"/>
-        <v>552</v>
-      </c>
-      <c r="O28" s="12">
-        <f t="shared" si="6"/>
-        <v>572</v>
+        <v>1128</v>
+      </c>
+      <c r="O28" s="7">
+        <f t="shared" si="6"/>
+        <v>1148</v>
       </c>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C29" s="13"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17">
+      <c r="C29" s="8"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12">
         <f>E26</f>
         <v>20</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="12">
         <f>F26*2</f>
-        <v>270</v>
-      </c>
-      <c r="I29" s="12">
+        <v>558</v>
+      </c>
+      <c r="I29" s="7">
         <f t="shared" si="7"/>
-        <v>290</v>
+        <v>578</v>
       </c>
       <c r="J29">
         <f t="shared" si="8"/>
@@ -1896,11 +1896,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="9"/>
-        <v>540</v>
-      </c>
-      <c r="L29" s="15">
+        <v>1116</v>
+      </c>
+      <c r="L29" s="10">
         <f t="shared" si="10"/>
-        <v>560</v>
+        <v>1136</v>
       </c>
       <c r="M29">
         <f t="shared" si="4"/>
@@ -1908,34 +1908,34 @@
       </c>
       <c r="N29">
         <f t="shared" si="5"/>
-        <v>1080</v>
-      </c>
-      <c r="O29" s="12">
-        <f t="shared" si="6"/>
-        <v>1100</v>
+        <v>2232</v>
+      </c>
+      <c r="O29" s="7">
+        <f t="shared" si="6"/>
+        <v>2252</v>
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C30" s="13"/>
-      <c r="E30" s="18">
+      <c r="C30" s="8"/>
+      <c r="E30" s="13">
         <f>C18</f>
         <v>20</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="14">
         <f>D18*2</f>
-        <v>264</v>
-      </c>
-      <c r="G30" s="19">
+        <v>552</v>
+      </c>
+      <c r="G30" s="14">
         <f>E30+3</f>
         <v>23</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="14">
         <f>F30</f>
-        <v>264</v>
-      </c>
-      <c r="I30" s="12">
+        <v>552</v>
+      </c>
+      <c r="I30" s="7">
         <f t="shared" si="7"/>
-        <v>287</v>
+        <v>575</v>
       </c>
       <c r="J30">
         <f t="shared" si="8"/>
@@ -1943,11 +1943,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="9"/>
-        <v>528</v>
-      </c>
-      <c r="L30" s="15">
+        <v>1104</v>
+      </c>
+      <c r="L30" s="10">
         <f t="shared" si="10"/>
-        <v>551</v>
+        <v>1127</v>
       </c>
       <c r="M30">
         <f t="shared" si="4"/>
@@ -1955,27 +1955,27 @@
       </c>
       <c r="N30">
         <f t="shared" si="5"/>
-        <v>1056</v>
-      </c>
-      <c r="O30" s="12">
-        <f t="shared" si="6"/>
-        <v>1079</v>
+        <v>2208</v>
+      </c>
+      <c r="O30" s="7">
+        <f t="shared" si="6"/>
+        <v>2231</v>
       </c>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C31" s="13"/>
-      <c r="E31" s="14"/>
+      <c r="C31" s="8"/>
+      <c r="E31" s="9"/>
       <c r="G31">
         <f>E30*2</f>
         <v>40</v>
       </c>
       <c r="H31">
         <f>F30</f>
-        <v>264</v>
-      </c>
-      <c r="I31" s="12">
+        <v>552</v>
+      </c>
+      <c r="I31" s="7">
         <f t="shared" si="7"/>
-        <v>304</v>
+        <v>592</v>
       </c>
       <c r="J31">
         <f t="shared" si="8"/>
@@ -1983,11 +1983,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="9"/>
-        <v>528</v>
-      </c>
-      <c r="L31" s="15">
+        <v>1104</v>
+      </c>
+      <c r="L31" s="10">
         <f t="shared" si="10"/>
-        <v>568</v>
+        <v>1144</v>
       </c>
       <c r="M31">
         <f t="shared" si="4"/>
@@ -1995,27 +1995,27 @@
       </c>
       <c r="N31">
         <f t="shared" si="5"/>
-        <v>1056</v>
-      </c>
-      <c r="O31" s="12">
-        <f t="shared" si="6"/>
-        <v>1096</v>
+        <v>2208</v>
+      </c>
+      <c r="O31" s="7">
+        <f t="shared" si="6"/>
+        <v>2248</v>
       </c>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C32" s="13"/>
-      <c r="E32" s="14"/>
+      <c r="C32" s="8"/>
+      <c r="E32" s="9"/>
       <c r="G32">
         <f>E30</f>
         <v>20</v>
       </c>
       <c r="H32">
         <f>F30+3</f>
-        <v>267</v>
-      </c>
-      <c r="I32" s="12">
+        <v>555</v>
+      </c>
+      <c r="I32" s="7">
         <f t="shared" si="7"/>
-        <v>287</v>
+        <v>575</v>
       </c>
       <c r="J32">
         <f t="shared" si="8"/>
@@ -2023,11 +2023,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="9"/>
-        <v>534</v>
-      </c>
-      <c r="L32" s="15">
+        <v>1110</v>
+      </c>
+      <c r="L32" s="10">
         <f t="shared" si="10"/>
-        <v>554</v>
+        <v>1130</v>
       </c>
       <c r="M32">
         <f t="shared" si="4"/>
@@ -2035,41 +2035,41 @@
       </c>
       <c r="N32">
         <f t="shared" si="5"/>
-        <v>1068</v>
-      </c>
-      <c r="O32" s="12">
-        <f t="shared" si="6"/>
-        <v>1088</v>
+        <v>2220</v>
+      </c>
+      <c r="O32" s="7">
+        <f t="shared" si="6"/>
+        <v>2240</v>
       </c>
     </row>
     <row r="33" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21">
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16">
         <f>E30</f>
         <v>20</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="16">
         <f>F30*2</f>
-        <v>528</v>
-      </c>
-      <c r="I33" s="23">
+        <v>1104</v>
+      </c>
+      <c r="I33" s="18">
         <f t="shared" si="7"/>
-        <v>548</v>
-      </c>
-      <c r="J33" s="21">
+        <v>1124</v>
+      </c>
+      <c r="J33" s="16">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K33" s="16">
         <f t="shared" si="9"/>
-        <v>1056</v>
-      </c>
-      <c r="L33" s="24">
+        <v>2208</v>
+      </c>
+      <c r="L33" s="19">
         <f t="shared" si="10"/>
-        <v>1076</v>
+        <v>2228</v>
       </c>
       <c r="M33">
         <f t="shared" si="4"/>
@@ -2077,53 +2077,53 @@
       </c>
       <c r="N33">
         <f t="shared" si="5"/>
-        <v>2112</v>
-      </c>
-      <c r="O33" s="12">
-        <f t="shared" si="6"/>
-        <v>2132</v>
+        <v>4416</v>
+      </c>
+      <c r="O33" s="7">
+        <f t="shared" si="6"/>
+        <v>4436</v>
       </c>
     </row>
     <row r="34" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C34" s="7">
+      <c r="C34" s="2">
         <f>A2+3</f>
         <v>23</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="3">
         <f>B2+3</f>
-        <v>69</v>
-      </c>
-      <c r="E34" s="9">
+        <v>141</v>
+      </c>
+      <c r="E34" s="4">
         <f>C34+3</f>
         <v>26</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="3">
         <f>D34</f>
-        <v>69</v>
-      </c>
-      <c r="G34" s="8">
+        <v>141</v>
+      </c>
+      <c r="G34" s="3">
         <f>E34+3</f>
         <v>29</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="3">
         <f>F34</f>
-        <v>69</v>
-      </c>
-      <c r="I34" s="10">
+        <v>141</v>
+      </c>
+      <c r="I34" s="5">
         <f>SUM(G34:H34)</f>
-        <v>98</v>
-      </c>
-      <c r="J34" s="8">
+        <v>170</v>
+      </c>
+      <c r="J34" s="3">
         <f>MIN(G34:H34)</f>
         <v>29</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34" s="3">
         <f>MAX(G34:H34)*2</f>
-        <v>138</v>
-      </c>
-      <c r="L34" s="11">
+        <v>282</v>
+      </c>
+      <c r="L34" s="6">
         <f>SUM(J34:K34)</f>
-        <v>167</v>
+        <v>311</v>
       </c>
       <c r="M34">
         <f t="shared" si="4"/>
@@ -2131,27 +2131,27 @@
       </c>
       <c r="N34">
         <f t="shared" si="5"/>
-        <v>276</v>
-      </c>
-      <c r="O34" s="12">
-        <f t="shared" si="6"/>
-        <v>305</v>
+        <v>564</v>
+      </c>
+      <c r="O34" s="7">
+        <f t="shared" si="6"/>
+        <v>593</v>
       </c>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C35" s="13"/>
-      <c r="E35" s="14"/>
+      <c r="C35" s="8"/>
+      <c r="E35" s="9"/>
       <c r="G35">
         <f>E34*2</f>
         <v>52</v>
       </c>
       <c r="H35">
         <f>F34</f>
-        <v>69</v>
-      </c>
-      <c r="I35" s="12">
+        <v>141</v>
+      </c>
+      <c r="I35" s="7">
         <f t="shared" ref="I35:I49" si="11">SUM(G35:H35)</f>
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="J35">
         <f t="shared" ref="J35:J49" si="12">MIN(G35:H35)</f>
@@ -2159,11 +2159,11 @@
       </c>
       <c r="K35">
         <f t="shared" ref="K35:K49" si="13">MAX(G35:H35)*2</f>
-        <v>138</v>
-      </c>
-      <c r="L35" s="15">
+        <v>282</v>
+      </c>
+      <c r="L35" s="10">
         <f t="shared" ref="L35:L49" si="14">SUM(J35:K35)</f>
-        <v>190</v>
+        <v>334</v>
       </c>
       <c r="M35">
         <f t="shared" si="4"/>
@@ -2171,27 +2171,27 @@
       </c>
       <c r="N35">
         <f t="shared" si="5"/>
-        <v>276</v>
-      </c>
-      <c r="O35" s="12">
-        <f t="shared" si="6"/>
-        <v>328</v>
+        <v>564</v>
+      </c>
+      <c r="O35" s="7">
+        <f t="shared" si="6"/>
+        <v>616</v>
       </c>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C36" s="13"/>
-      <c r="E36" s="14"/>
+      <c r="C36" s="8"/>
+      <c r="E36" s="9"/>
       <c r="G36">
         <f>E34</f>
         <v>26</v>
       </c>
       <c r="H36">
         <f>F34+3</f>
-        <v>72</v>
-      </c>
-      <c r="I36" s="12">
+        <v>144</v>
+      </c>
+      <c r="I36" s="7">
         <f t="shared" si="11"/>
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="J36">
         <f t="shared" si="12"/>
@@ -2199,11 +2199,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="13"/>
-        <v>144</v>
-      </c>
-      <c r="L36" s="15">
+        <v>288</v>
+      </c>
+      <c r="L36" s="10">
         <f t="shared" si="14"/>
-        <v>170</v>
+        <v>314</v>
       </c>
       <c r="M36">
         <f t="shared" si="4"/>
@@ -2211,28 +2211,28 @@
       </c>
       <c r="N36">
         <f t="shared" si="5"/>
-        <v>288</v>
-      </c>
-      <c r="O36" s="12">
-        <f t="shared" si="6"/>
-        <v>314</v>
+        <v>576</v>
+      </c>
+      <c r="O36" s="7">
+        <f t="shared" si="6"/>
+        <v>602</v>
       </c>
     </row>
     <row r="37" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C37" s="13"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17">
+      <c r="C37" s="8"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12">
         <f>E34</f>
         <v>26</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="12">
         <f>F34*2</f>
-        <v>138</v>
-      </c>
-      <c r="I37" s="12">
+        <v>282</v>
+      </c>
+      <c r="I37" s="7">
         <f t="shared" si="11"/>
-        <v>164</v>
+        <v>308</v>
       </c>
       <c r="J37">
         <f t="shared" si="12"/>
@@ -2240,11 +2240,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="13"/>
-        <v>276</v>
-      </c>
-      <c r="L37" s="15">
+        <v>564</v>
+      </c>
+      <c r="L37" s="10">
         <f t="shared" si="14"/>
-        <v>302</v>
+        <v>590</v>
       </c>
       <c r="M37">
         <f t="shared" si="4"/>
@@ -2252,34 +2252,34 @@
       </c>
       <c r="N37">
         <f t="shared" si="5"/>
-        <v>552</v>
-      </c>
-      <c r="O37" s="12">
-        <f t="shared" si="6"/>
-        <v>578</v>
+        <v>1128</v>
+      </c>
+      <c r="O37" s="7">
+        <f t="shared" si="6"/>
+        <v>1154</v>
       </c>
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C38" s="13"/>
-      <c r="E38" s="18">
+      <c r="C38" s="8"/>
+      <c r="E38" s="13">
         <f>C34*2</f>
         <v>46</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F38" s="14">
         <f>D34</f>
-        <v>69</v>
-      </c>
-      <c r="G38" s="19">
+        <v>141</v>
+      </c>
+      <c r="G38" s="14">
         <f>E38+3</f>
         <v>49</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H38" s="14">
         <f>F38</f>
-        <v>69</v>
-      </c>
-      <c r="I38" s="12">
+        <v>141</v>
+      </c>
+      <c r="I38" s="7">
         <f t="shared" si="11"/>
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="J38">
         <f t="shared" si="12"/>
@@ -2287,11 +2287,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="13"/>
-        <v>138</v>
-      </c>
-      <c r="L38" s="15">
+        <v>282</v>
+      </c>
+      <c r="L38" s="10">
         <f t="shared" si="14"/>
-        <v>187</v>
+        <v>331</v>
       </c>
       <c r="M38">
         <f t="shared" si="4"/>
@@ -2299,67 +2299,67 @@
       </c>
       <c r="N38">
         <f t="shared" si="5"/>
-        <v>276</v>
-      </c>
-      <c r="O38" s="12">
-        <f t="shared" si="6"/>
-        <v>325</v>
+        <v>564</v>
+      </c>
+      <c r="O38" s="7">
+        <f t="shared" si="6"/>
+        <v>613</v>
       </c>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C39" s="13"/>
-      <c r="E39" s="14"/>
+      <c r="C39" s="8"/>
+      <c r="E39" s="9"/>
       <c r="G39">
         <f>E38*2</f>
         <v>92</v>
       </c>
       <c r="H39">
         <f>F38</f>
-        <v>69</v>
-      </c>
-      <c r="I39" s="12">
+        <v>141</v>
+      </c>
+      <c r="I39" s="7">
         <f t="shared" si="11"/>
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="J39">
         <f t="shared" si="12"/>
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="K39">
         <f t="shared" si="13"/>
-        <v>184</v>
-      </c>
-      <c r="L39" s="15">
+        <v>282</v>
+      </c>
+      <c r="L39" s="10">
         <f t="shared" si="14"/>
-        <v>253</v>
+        <v>374</v>
       </c>
       <c r="M39">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="N39">
         <f t="shared" si="5"/>
-        <v>368</v>
-      </c>
-      <c r="O39" s="12">
-        <f t="shared" si="6"/>
-        <v>437</v>
+        <v>564</v>
+      </c>
+      <c r="O39" s="7">
+        <f t="shared" si="6"/>
+        <v>656</v>
       </c>
     </row>
     <row r="40" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C40" s="13"/>
-      <c r="E40" s="14"/>
+      <c r="C40" s="8"/>
+      <c r="E40" s="9"/>
       <c r="G40">
         <f>E38</f>
         <v>46</v>
       </c>
       <c r="H40">
         <f>F38+3</f>
-        <v>72</v>
-      </c>
-      <c r="I40" s="12">
+        <v>144</v>
+      </c>
+      <c r="I40" s="7">
         <f t="shared" si="11"/>
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="J40">
         <f t="shared" si="12"/>
@@ -2367,11 +2367,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="13"/>
-        <v>144</v>
-      </c>
-      <c r="L40" s="15">
+        <v>288</v>
+      </c>
+      <c r="L40" s="10">
         <f t="shared" si="14"/>
-        <v>190</v>
+        <v>334</v>
       </c>
       <c r="M40">
         <f t="shared" si="4"/>
@@ -2379,28 +2379,28 @@
       </c>
       <c r="N40">
         <f t="shared" si="5"/>
-        <v>288</v>
-      </c>
-      <c r="O40" s="12">
-        <f t="shared" si="6"/>
-        <v>334</v>
+        <v>576</v>
+      </c>
+      <c r="O40" s="7">
+        <f t="shared" si="6"/>
+        <v>622</v>
       </c>
     </row>
     <row r="41" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C41" s="13"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17">
+      <c r="C41" s="8"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12">
         <f>E38</f>
         <v>46</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="12">
         <f>F38*2</f>
-        <v>138</v>
-      </c>
-      <c r="I41" s="12">
+        <v>282</v>
+      </c>
+      <c r="I41" s="7">
         <f t="shared" si="11"/>
-        <v>184</v>
+        <v>328</v>
       </c>
       <c r="J41">
         <f t="shared" si="12"/>
@@ -2408,11 +2408,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="13"/>
-        <v>276</v>
-      </c>
-      <c r="L41" s="15">
+        <v>564</v>
+      </c>
+      <c r="L41" s="10">
         <f t="shared" si="14"/>
-        <v>322</v>
+        <v>610</v>
       </c>
       <c r="M41">
         <f t="shared" si="4"/>
@@ -2420,34 +2420,34 @@
       </c>
       <c r="N41">
         <f t="shared" si="5"/>
-        <v>552</v>
-      </c>
-      <c r="O41" s="12">
-        <f t="shared" si="6"/>
-        <v>598</v>
+        <v>1128</v>
+      </c>
+      <c r="O41" s="7">
+        <f t="shared" si="6"/>
+        <v>1174</v>
       </c>
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C42" s="13"/>
-      <c r="E42" s="18">
+      <c r="C42" s="8"/>
+      <c r="E42" s="13">
         <f>C34</f>
         <v>23</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F42" s="14">
         <f>D34+3</f>
-        <v>72</v>
-      </c>
-      <c r="G42" s="19">
+        <v>144</v>
+      </c>
+      <c r="G42" s="14">
         <f>E42+3</f>
         <v>26</v>
       </c>
-      <c r="H42" s="19">
+      <c r="H42" s="14">
         <f>F42</f>
-        <v>72</v>
-      </c>
-      <c r="I42" s="12">
+        <v>144</v>
+      </c>
+      <c r="I42" s="7">
         <f t="shared" si="11"/>
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="J42">
         <f t="shared" si="12"/>
@@ -2455,11 +2455,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="13"/>
-        <v>144</v>
-      </c>
-      <c r="L42" s="15">
+        <v>288</v>
+      </c>
+      <c r="L42" s="10">
         <f t="shared" si="14"/>
-        <v>170</v>
+        <v>314</v>
       </c>
       <c r="M42">
         <f t="shared" si="4"/>
@@ -2467,27 +2467,27 @@
       </c>
       <c r="N42">
         <f t="shared" si="5"/>
-        <v>288</v>
-      </c>
-      <c r="O42" s="12">
-        <f t="shared" si="6"/>
-        <v>314</v>
+        <v>576</v>
+      </c>
+      <c r="O42" s="7">
+        <f t="shared" si="6"/>
+        <v>602</v>
       </c>
     </row>
     <row r="43" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C43" s="13"/>
-      <c r="E43" s="14"/>
+      <c r="C43" s="8"/>
+      <c r="E43" s="9"/>
       <c r="G43">
         <f>E42*2</f>
         <v>46</v>
       </c>
       <c r="H43">
         <f>F42</f>
-        <v>72</v>
-      </c>
-      <c r="I43" s="12">
+        <v>144</v>
+      </c>
+      <c r="I43" s="7">
         <f t="shared" si="11"/>
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="J43">
         <f t="shared" si="12"/>
@@ -2495,11 +2495,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="13"/>
-        <v>144</v>
-      </c>
-      <c r="L43" s="15">
+        <v>288</v>
+      </c>
+      <c r="L43" s="10">
         <f t="shared" si="14"/>
-        <v>190</v>
+        <v>334</v>
       </c>
       <c r="M43">
         <f t="shared" si="4"/>
@@ -2507,27 +2507,27 @@
       </c>
       <c r="N43">
         <f t="shared" si="5"/>
-        <v>288</v>
-      </c>
-      <c r="O43" s="12">
-        <f t="shared" si="6"/>
-        <v>334</v>
+        <v>576</v>
+      </c>
+      <c r="O43" s="7">
+        <f t="shared" si="6"/>
+        <v>622</v>
       </c>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C44" s="13"/>
-      <c r="E44" s="14"/>
+      <c r="C44" s="8"/>
+      <c r="E44" s="9"/>
       <c r="G44">
         <f>E42</f>
         <v>23</v>
       </c>
       <c r="H44">
         <f>F42+3</f>
-        <v>75</v>
-      </c>
-      <c r="I44" s="12">
+        <v>147</v>
+      </c>
+      <c r="I44" s="7">
         <f t="shared" si="11"/>
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="J44">
         <f t="shared" si="12"/>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="13"/>
-        <v>150</v>
-      </c>
-      <c r="L44" s="15">
+        <v>294</v>
+      </c>
+      <c r="L44" s="10">
         <f t="shared" si="14"/>
-        <v>173</v>
+        <v>317</v>
       </c>
       <c r="M44">
         <f t="shared" si="4"/>
@@ -2547,28 +2547,28 @@
       </c>
       <c r="N44">
         <f t="shared" si="5"/>
-        <v>300</v>
-      </c>
-      <c r="O44" s="12">
-        <f t="shared" si="6"/>
-        <v>323</v>
+        <v>588</v>
+      </c>
+      <c r="O44" s="7">
+        <f t="shared" si="6"/>
+        <v>611</v>
       </c>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C45" s="13"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17">
+      <c r="C45" s="8"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12">
         <f>E42</f>
         <v>23</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="12">
         <f>F42*2</f>
-        <v>144</v>
-      </c>
-      <c r="I45" s="12">
+        <v>288</v>
+      </c>
+      <c r="I45" s="7">
         <f t="shared" si="11"/>
-        <v>167</v>
+        <v>311</v>
       </c>
       <c r="J45">
         <f t="shared" si="12"/>
@@ -2576,11 +2576,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="13"/>
-        <v>288</v>
-      </c>
-      <c r="L45" s="15">
+        <v>576</v>
+      </c>
+      <c r="L45" s="10">
         <f t="shared" si="14"/>
-        <v>311</v>
+        <v>599</v>
       </c>
       <c r="M45">
         <f t="shared" si="4"/>
@@ -2588,34 +2588,34 @@
       </c>
       <c r="N45">
         <f t="shared" si="5"/>
-        <v>576</v>
-      </c>
-      <c r="O45" s="12">
-        <f t="shared" si="6"/>
-        <v>599</v>
+        <v>1152</v>
+      </c>
+      <c r="O45" s="7">
+        <f t="shared" si="6"/>
+        <v>1175</v>
       </c>
     </row>
     <row r="46" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C46" s="13"/>
-      <c r="E46" s="18">
+      <c r="C46" s="8"/>
+      <c r="E46" s="13">
         <f>C34</f>
         <v>23</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46" s="14">
         <f>D34*2</f>
-        <v>138</v>
-      </c>
-      <c r="G46" s="19">
+        <v>282</v>
+      </c>
+      <c r="G46" s="14">
         <f>E46+3</f>
         <v>26</v>
       </c>
-      <c r="H46" s="19">
+      <c r="H46" s="14">
         <f>F46</f>
-        <v>138</v>
-      </c>
-      <c r="I46" s="12">
+        <v>282</v>
+      </c>
+      <c r="I46" s="7">
         <f t="shared" si="11"/>
-        <v>164</v>
+        <v>308</v>
       </c>
       <c r="J46">
         <f t="shared" si="12"/>
@@ -2623,11 +2623,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="13"/>
-        <v>276</v>
-      </c>
-      <c r="L46" s="15">
+        <v>564</v>
+      </c>
+      <c r="L46" s="10">
         <f t="shared" si="14"/>
-        <v>302</v>
+        <v>590</v>
       </c>
       <c r="M46">
         <f t="shared" si="4"/>
@@ -2635,27 +2635,27 @@
       </c>
       <c r="N46">
         <f t="shared" si="5"/>
-        <v>552</v>
-      </c>
-      <c r="O46" s="12">
-        <f t="shared" si="6"/>
-        <v>578</v>
+        <v>1128</v>
+      </c>
+      <c r="O46" s="7">
+        <f t="shared" si="6"/>
+        <v>1154</v>
       </c>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C47" s="13"/>
-      <c r="E47" s="14"/>
+      <c r="C47" s="8"/>
+      <c r="E47" s="9"/>
       <c r="G47">
         <f>E46*2</f>
         <v>46</v>
       </c>
       <c r="H47">
         <f>F46</f>
-        <v>138</v>
-      </c>
-      <c r="I47" s="12">
+        <v>282</v>
+      </c>
+      <c r="I47" s="7">
         <f t="shared" si="11"/>
-        <v>184</v>
+        <v>328</v>
       </c>
       <c r="J47">
         <f t="shared" si="12"/>
@@ -2663,11 +2663,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="13"/>
-        <v>276</v>
-      </c>
-      <c r="L47" s="15">
+        <v>564</v>
+      </c>
+      <c r="L47" s="10">
         <f t="shared" si="14"/>
-        <v>322</v>
+        <v>610</v>
       </c>
       <c r="M47">
         <f t="shared" si="4"/>
@@ -2675,27 +2675,27 @@
       </c>
       <c r="N47">
         <f t="shared" si="5"/>
-        <v>552</v>
-      </c>
-      <c r="O47" s="12">
-        <f t="shared" si="6"/>
-        <v>598</v>
+        <v>1128</v>
+      </c>
+      <c r="O47" s="7">
+        <f t="shared" si="6"/>
+        <v>1174</v>
       </c>
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C48" s="13"/>
-      <c r="E48" s="14"/>
+      <c r="C48" s="8"/>
+      <c r="E48" s="9"/>
       <c r="G48">
         <f>E46</f>
         <v>23</v>
       </c>
       <c r="H48">
         <f>F46+3</f>
-        <v>141</v>
-      </c>
-      <c r="I48" s="12">
+        <v>285</v>
+      </c>
+      <c r="I48" s="7">
         <f t="shared" si="11"/>
-        <v>164</v>
+        <v>308</v>
       </c>
       <c r="J48">
         <f t="shared" si="12"/>
@@ -2703,11 +2703,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="13"/>
-        <v>282</v>
-      </c>
-      <c r="L48" s="15">
+        <v>570</v>
+      </c>
+      <c r="L48" s="10">
         <f t="shared" si="14"/>
-        <v>305</v>
+        <v>593</v>
       </c>
       <c r="M48">
         <f t="shared" si="4"/>
@@ -2715,41 +2715,41 @@
       </c>
       <c r="N48">
         <f t="shared" si="5"/>
+        <v>1140</v>
+      </c>
+      <c r="O48" s="7">
+        <f t="shared" si="6"/>
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="15"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16">
+        <f>E46</f>
+        <v>23</v>
+      </c>
+      <c r="H49" s="16">
+        <f>F46*2</f>
         <v>564</v>
       </c>
-      <c r="O48" s="12">
-        <f t="shared" si="6"/>
+      <c r="I49" s="18">
+        <f t="shared" si="11"/>
         <v>587</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="20"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21">
-        <f>E46</f>
-        <v>23</v>
-      </c>
-      <c r="H49" s="21">
-        <f>F46*2</f>
-        <v>276</v>
-      </c>
-      <c r="I49" s="23">
-        <f t="shared" si="11"/>
-        <v>299</v>
-      </c>
-      <c r="J49" s="21">
+      <c r="J49" s="16">
         <f t="shared" si="12"/>
         <v>23</v>
       </c>
-      <c r="K49" s="21">
+      <c r="K49" s="16">
         <f t="shared" si="13"/>
-        <v>552</v>
-      </c>
-      <c r="L49" s="24">
+        <v>1128</v>
+      </c>
+      <c r="L49" s="19">
         <f t="shared" si="14"/>
-        <v>575</v>
+        <v>1151</v>
       </c>
       <c r="M49">
         <f t="shared" si="4"/>
@@ -2757,53 +2757,53 @@
       </c>
       <c r="N49">
         <f t="shared" si="5"/>
-        <v>1104</v>
-      </c>
-      <c r="O49" s="12">
-        <f t="shared" si="6"/>
-        <v>1127</v>
+        <v>2256</v>
+      </c>
+      <c r="O49" s="7">
+        <f t="shared" si="6"/>
+        <v>2279</v>
       </c>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C50" s="7">
+      <c r="C50" s="2">
         <f>A2*2</f>
         <v>40</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="3">
         <f>B2</f>
-        <v>66</v>
-      </c>
-      <c r="E50" s="9">
+        <v>138</v>
+      </c>
+      <c r="E50" s="4">
         <f>C50+3</f>
         <v>43</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="3">
         <f>D50</f>
-        <v>66</v>
-      </c>
-      <c r="G50" s="8">
+        <v>138</v>
+      </c>
+      <c r="G50" s="3">
         <f>E50+3</f>
         <v>46</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="3">
         <f>F50</f>
-        <v>66</v>
-      </c>
-      <c r="I50" s="10">
+        <v>138</v>
+      </c>
+      <c r="I50" s="5">
         <f>SUM(G50:H50)</f>
-        <v>112</v>
-      </c>
-      <c r="J50" s="8">
+        <v>184</v>
+      </c>
+      <c r="J50" s="3">
         <f>MIN(G50:H50)</f>
         <v>46</v>
       </c>
-      <c r="K50" s="8">
+      <c r="K50" s="3">
         <f>MAX(G50:H50)*2</f>
-        <v>132</v>
-      </c>
-      <c r="L50" s="11">
+        <v>276</v>
+      </c>
+      <c r="L50" s="6">
         <f>SUM(J50:K50)</f>
-        <v>178</v>
+        <v>322</v>
       </c>
       <c r="M50">
         <f t="shared" si="4"/>
@@ -2811,67 +2811,67 @@
       </c>
       <c r="N50">
         <f t="shared" si="5"/>
-        <v>264</v>
-      </c>
-      <c r="O50" s="12">
-        <f t="shared" si="6"/>
-        <v>310</v>
+        <v>552</v>
+      </c>
+      <c r="O50" s="7">
+        <f t="shared" si="6"/>
+        <v>598</v>
       </c>
     </row>
     <row r="51" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C51" s="13"/>
-      <c r="E51" s="14"/>
+      <c r="C51" s="8"/>
+      <c r="E51" s="9"/>
       <c r="G51">
         <f>E50*2</f>
         <v>86</v>
       </c>
       <c r="H51">
         <f>F50</f>
-        <v>66</v>
-      </c>
-      <c r="I51" s="12">
+        <v>138</v>
+      </c>
+      <c r="I51" s="7">
         <f t="shared" ref="I51:I65" si="15">SUM(G51:H51)</f>
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="J51">
         <f t="shared" ref="J51:J65" si="16">MIN(G51:H51)</f>
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="K51">
         <f t="shared" ref="K51:K65" si="17">MAX(G51:H51)*2</f>
-        <v>172</v>
-      </c>
-      <c r="L51" s="15">
+        <v>276</v>
+      </c>
+      <c r="L51" s="10">
         <f t="shared" ref="L51:L65" si="18">SUM(J51:K51)</f>
-        <v>238</v>
+        <v>362</v>
       </c>
       <c r="M51">
         <f t="shared" si="4"/>
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="N51">
         <f t="shared" si="5"/>
-        <v>344</v>
-      </c>
-      <c r="O51" s="12">
-        <f t="shared" si="6"/>
-        <v>410</v>
+        <v>552</v>
+      </c>
+      <c r="O51" s="7">
+        <f t="shared" si="6"/>
+        <v>638</v>
       </c>
     </row>
     <row r="52" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C52" s="13"/>
-      <c r="E52" s="14"/>
+      <c r="C52" s="8"/>
+      <c r="E52" s="9"/>
       <c r="G52">
         <f>E50</f>
         <v>43</v>
       </c>
       <c r="H52">
         <f>F50+3</f>
-        <v>69</v>
-      </c>
-      <c r="I52" s="12">
+        <v>141</v>
+      </c>
+      <c r="I52" s="7">
         <f t="shared" si="15"/>
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="J52">
         <f t="shared" si="16"/>
@@ -2879,11 +2879,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="17"/>
-        <v>138</v>
-      </c>
-      <c r="L52" s="15">
+        <v>282</v>
+      </c>
+      <c r="L52" s="10">
         <f t="shared" si="18"/>
-        <v>181</v>
+        <v>325</v>
       </c>
       <c r="M52">
         <f t="shared" si="4"/>
@@ -2891,28 +2891,28 @@
       </c>
       <c r="N52">
         <f t="shared" si="5"/>
-        <v>276</v>
-      </c>
-      <c r="O52" s="12">
-        <f t="shared" si="6"/>
-        <v>319</v>
+        <v>564</v>
+      </c>
+      <c r="O52" s="7">
+        <f t="shared" si="6"/>
+        <v>607</v>
       </c>
     </row>
     <row r="53" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C53" s="13"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17">
+      <c r="C53" s="8"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12">
         <f>E50</f>
         <v>43</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H53" s="12">
         <f>F50*2</f>
-        <v>132</v>
-      </c>
-      <c r="I53" s="12">
+        <v>276</v>
+      </c>
+      <c r="I53" s="7">
         <f t="shared" si="15"/>
-        <v>175</v>
+        <v>319</v>
       </c>
       <c r="J53">
         <f t="shared" si="16"/>
@@ -2920,11 +2920,11 @@
       </c>
       <c r="K53">
         <f t="shared" si="17"/>
-        <v>264</v>
-      </c>
-      <c r="L53" s="15">
+        <v>552</v>
+      </c>
+      <c r="L53" s="10">
         <f t="shared" si="18"/>
-        <v>307</v>
+        <v>595</v>
       </c>
       <c r="M53">
         <f t="shared" si="4"/>
@@ -2932,155 +2932,155 @@
       </c>
       <c r="N53">
         <f t="shared" si="5"/>
-        <v>528</v>
-      </c>
-      <c r="O53" s="12">
-        <f t="shared" si="6"/>
-        <v>571</v>
+        <v>1104</v>
+      </c>
+      <c r="O53" s="7">
+        <f t="shared" si="6"/>
+        <v>1147</v>
       </c>
     </row>
     <row r="54" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C54" s="13"/>
-      <c r="E54" s="18">
+      <c r="C54" s="8"/>
+      <c r="E54" s="13">
         <f>C50*2</f>
         <v>80</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F54" s="14">
         <f>D50</f>
-        <v>66</v>
-      </c>
-      <c r="G54" s="19">
+        <v>138</v>
+      </c>
+      <c r="G54" s="14">
         <f>E54+3</f>
         <v>83</v>
       </c>
-      <c r="H54" s="19">
+      <c r="H54" s="14">
         <f>F54</f>
-        <v>66</v>
-      </c>
-      <c r="I54" s="12">
+        <v>138</v>
+      </c>
+      <c r="I54" s="7">
         <f t="shared" si="15"/>
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="J54">
         <f t="shared" si="16"/>
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="K54">
         <f t="shared" si="17"/>
-        <v>166</v>
-      </c>
-      <c r="L54" s="15">
+        <v>276</v>
+      </c>
+      <c r="L54" s="10">
         <f t="shared" si="18"/>
-        <v>232</v>
+        <v>359</v>
       </c>
       <c r="M54">
         <f t="shared" si="4"/>
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="N54">
         <f t="shared" si="5"/>
-        <v>332</v>
-      </c>
-      <c r="O54" s="12">
-        <f t="shared" si="6"/>
-        <v>398</v>
+        <v>552</v>
+      </c>
+      <c r="O54" s="7">
+        <f t="shared" si="6"/>
+        <v>635</v>
       </c>
     </row>
     <row r="55" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C55" s="13"/>
-      <c r="E55" s="14"/>
+      <c r="C55" s="8"/>
+      <c r="E55" s="9"/>
       <c r="G55">
         <f>E54*2</f>
         <v>160</v>
       </c>
       <c r="H55">
         <f>F54</f>
-        <v>66</v>
-      </c>
-      <c r="I55" s="12">
+        <v>138</v>
+      </c>
+      <c r="I55" s="7">
         <f t="shared" si="15"/>
-        <v>226</v>
+        <v>298</v>
       </c>
       <c r="J55">
         <f t="shared" si="16"/>
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="K55">
         <f t="shared" si="17"/>
         <v>320</v>
       </c>
-      <c r="L55" s="15">
+      <c r="L55" s="10">
         <f t="shared" si="18"/>
-        <v>386</v>
+        <v>458</v>
       </c>
       <c r="M55">
         <f t="shared" si="4"/>
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="N55">
         <f t="shared" si="5"/>
         <v>640</v>
       </c>
-      <c r="O55" s="12">
-        <f t="shared" si="6"/>
-        <v>706</v>
+      <c r="O55" s="7">
+        <f t="shared" si="6"/>
+        <v>778</v>
       </c>
     </row>
     <row r="56" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C56" s="13"/>
-      <c r="E56" s="14"/>
+      <c r="C56" s="8"/>
+      <c r="E56" s="9"/>
       <c r="G56">
         <f>E54</f>
         <v>80</v>
       </c>
       <c r="H56">
         <f>F54+3</f>
-        <v>69</v>
-      </c>
-      <c r="I56" s="12">
+        <v>141</v>
+      </c>
+      <c r="I56" s="7">
         <f t="shared" si="15"/>
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="J56">
         <f t="shared" si="16"/>
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="K56">
         <f t="shared" si="17"/>
-        <v>160</v>
-      </c>
-      <c r="L56" s="15">
+        <v>282</v>
+      </c>
+      <c r="L56" s="10">
         <f t="shared" si="18"/>
-        <v>229</v>
+        <v>362</v>
       </c>
       <c r="M56">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="N56">
         <f t="shared" si="5"/>
-        <v>320</v>
-      </c>
-      <c r="O56" s="12">
-        <f t="shared" si="6"/>
-        <v>389</v>
+        <v>564</v>
+      </c>
+      <c r="O56" s="7">
+        <f t="shared" si="6"/>
+        <v>644</v>
       </c>
     </row>
     <row r="57" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C57" s="13"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17">
+      <c r="C57" s="8"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12">
         <f>E54</f>
         <v>80</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H57" s="12">
         <f>F54*2</f>
-        <v>132</v>
-      </c>
-      <c r="I57" s="12">
+        <v>276</v>
+      </c>
+      <c r="I57" s="7">
         <f t="shared" si="15"/>
-        <v>212</v>
+        <v>356</v>
       </c>
       <c r="J57">
         <f t="shared" si="16"/>
@@ -3088,11 +3088,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="17"/>
-        <v>264</v>
-      </c>
-      <c r="L57" s="15">
+        <v>552</v>
+      </c>
+      <c r="L57" s="10">
         <f t="shared" si="18"/>
-        <v>344</v>
+        <v>632</v>
       </c>
       <c r="M57">
         <f t="shared" si="4"/>
@@ -3100,34 +3100,34 @@
       </c>
       <c r="N57">
         <f t="shared" si="5"/>
-        <v>528</v>
-      </c>
-      <c r="O57" s="12">
-        <f t="shared" si="6"/>
-        <v>608</v>
+        <v>1104</v>
+      </c>
+      <c r="O57" s="7">
+        <f t="shared" si="6"/>
+        <v>1184</v>
       </c>
     </row>
     <row r="58" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C58" s="13"/>
-      <c r="E58" s="18">
+      <c r="C58" s="8"/>
+      <c r="E58" s="13">
         <f>C50</f>
         <v>40</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F58" s="14">
         <f>D50+3</f>
-        <v>69</v>
-      </c>
-      <c r="G58" s="19">
+        <v>141</v>
+      </c>
+      <c r="G58" s="14">
         <f>E58+3</f>
         <v>43</v>
       </c>
-      <c r="H58" s="19">
+      <c r="H58" s="14">
         <f>F58</f>
-        <v>69</v>
-      </c>
-      <c r="I58" s="12">
+        <v>141</v>
+      </c>
+      <c r="I58" s="7">
         <f t="shared" si="15"/>
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="J58">
         <f t="shared" si="16"/>
@@ -3135,11 +3135,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="17"/>
-        <v>138</v>
-      </c>
-      <c r="L58" s="15">
+        <v>282</v>
+      </c>
+      <c r="L58" s="10">
         <f t="shared" si="18"/>
-        <v>181</v>
+        <v>325</v>
       </c>
       <c r="M58">
         <f t="shared" si="4"/>
@@ -3147,67 +3147,67 @@
       </c>
       <c r="N58">
         <f t="shared" si="5"/>
-        <v>276</v>
-      </c>
-      <c r="O58" s="12">
-        <f t="shared" si="6"/>
-        <v>319</v>
+        <v>564</v>
+      </c>
+      <c r="O58" s="7">
+        <f t="shared" si="6"/>
+        <v>607</v>
       </c>
     </row>
     <row r="59" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C59" s="13"/>
-      <c r="E59" s="14"/>
+      <c r="C59" s="8"/>
+      <c r="E59" s="9"/>
       <c r="G59">
         <f>E58*2</f>
         <v>80</v>
       </c>
       <c r="H59">
         <f>F58</f>
-        <v>69</v>
-      </c>
-      <c r="I59" s="12">
+        <v>141</v>
+      </c>
+      <c r="I59" s="7">
         <f t="shared" si="15"/>
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="J59">
         <f t="shared" si="16"/>
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="K59">
         <f t="shared" si="17"/>
-        <v>160</v>
-      </c>
-      <c r="L59" s="15">
+        <v>282</v>
+      </c>
+      <c r="L59" s="10">
         <f t="shared" si="18"/>
-        <v>229</v>
+        <v>362</v>
       </c>
       <c r="M59">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="N59">
         <f t="shared" si="5"/>
-        <v>320</v>
-      </c>
-      <c r="O59" s="12">
-        <f t="shared" si="6"/>
-        <v>389</v>
+        <v>564</v>
+      </c>
+      <c r="O59" s="7">
+        <f t="shared" si="6"/>
+        <v>644</v>
       </c>
     </row>
     <row r="60" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C60" s="13"/>
-      <c r="E60" s="14"/>
+      <c r="C60" s="8"/>
+      <c r="E60" s="9"/>
       <c r="G60">
         <f>E58</f>
         <v>40</v>
       </c>
       <c r="H60">
         <f>F58+3</f>
-        <v>72</v>
-      </c>
-      <c r="I60" s="12">
+        <v>144</v>
+      </c>
+      <c r="I60" s="7">
         <f t="shared" si="15"/>
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="J60">
         <f t="shared" si="16"/>
@@ -3215,11 +3215,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="17"/>
-        <v>144</v>
-      </c>
-      <c r="L60" s="15">
+        <v>288</v>
+      </c>
+      <c r="L60" s="10">
         <f t="shared" si="18"/>
-        <v>184</v>
+        <v>328</v>
       </c>
       <c r="M60">
         <f t="shared" si="4"/>
@@ -3227,28 +3227,28 @@
       </c>
       <c r="N60">
         <f t="shared" si="5"/>
-        <v>288</v>
-      </c>
-      <c r="O60" s="12">
-        <f t="shared" si="6"/>
-        <v>328</v>
+        <v>576</v>
+      </c>
+      <c r="O60" s="7">
+        <f t="shared" si="6"/>
+        <v>616</v>
       </c>
     </row>
     <row r="61" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C61" s="13"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17">
+      <c r="C61" s="8"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12">
         <f>E58</f>
         <v>40</v>
       </c>
-      <c r="H61" s="17">
+      <c r="H61" s="12">
         <f>F58*2</f>
-        <v>138</v>
-      </c>
-      <c r="I61" s="12">
+        <v>282</v>
+      </c>
+      <c r="I61" s="7">
         <f t="shared" si="15"/>
-        <v>178</v>
+        <v>322</v>
       </c>
       <c r="J61">
         <f t="shared" si="16"/>
@@ -3256,46 +3256,46 @@
       </c>
       <c r="K61">
         <f t="shared" si="17"/>
+        <v>564</v>
+      </c>
+      <c r="L61" s="10">
+        <f t="shared" si="18"/>
+        <v>604</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="5"/>
+        <v>1128</v>
+      </c>
+      <c r="O61" s="7">
+        <f t="shared" si="6"/>
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C62" s="8"/>
+      <c r="E62" s="13">
+        <f>C50</f>
+        <v>40</v>
+      </c>
+      <c r="F62" s="14">
+        <f>D50*2</f>
         <v>276</v>
       </c>
-      <c r="L61" s="15">
-        <f t="shared" si="18"/>
-        <v>316</v>
-      </c>
-      <c r="M61">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="N61">
-        <f t="shared" si="5"/>
-        <v>552</v>
-      </c>
-      <c r="O61" s="12">
-        <f t="shared" si="6"/>
-        <v>592</v>
-      </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C62" s="13"/>
-      <c r="E62" s="18">
-        <f>C50</f>
-        <v>40</v>
-      </c>
-      <c r="F62" s="19">
-        <f>D50*2</f>
-        <v>132</v>
-      </c>
-      <c r="G62" s="19">
+      <c r="G62" s="14">
         <f>E62+3</f>
         <v>43</v>
       </c>
-      <c r="H62" s="19">
+      <c r="H62" s="14">
         <f>F62</f>
-        <v>132</v>
-      </c>
-      <c r="I62" s="12">
+        <v>276</v>
+      </c>
+      <c r="I62" s="7">
         <f t="shared" si="15"/>
-        <v>175</v>
+        <v>319</v>
       </c>
       <c r="J62">
         <f t="shared" si="16"/>
@@ -3303,11 +3303,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="17"/>
-        <v>264</v>
-      </c>
-      <c r="L62" s="15">
+        <v>552</v>
+      </c>
+      <c r="L62" s="10">
         <f t="shared" si="18"/>
-        <v>307</v>
+        <v>595</v>
       </c>
       <c r="M62">
         <f t="shared" si="4"/>
@@ -3315,27 +3315,27 @@
       </c>
       <c r="N62">
         <f t="shared" si="5"/>
-        <v>528</v>
-      </c>
-      <c r="O62" s="12">
-        <f t="shared" si="6"/>
-        <v>571</v>
+        <v>1104</v>
+      </c>
+      <c r="O62" s="7">
+        <f t="shared" si="6"/>
+        <v>1147</v>
       </c>
     </row>
     <row r="63" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C63" s="13"/>
-      <c r="E63" s="14"/>
+      <c r="C63" s="8"/>
+      <c r="E63" s="9"/>
       <c r="G63">
         <f>E62*2</f>
         <v>80</v>
       </c>
       <c r="H63">
         <f>F62</f>
-        <v>132</v>
-      </c>
-      <c r="I63" s="12">
+        <v>276</v>
+      </c>
+      <c r="I63" s="7">
         <f t="shared" si="15"/>
-        <v>212</v>
+        <v>356</v>
       </c>
       <c r="J63">
         <f t="shared" si="16"/>
@@ -3343,11 +3343,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="17"/>
-        <v>264</v>
-      </c>
-      <c r="L63" s="15">
+        <v>552</v>
+      </c>
+      <c r="L63" s="10">
         <f t="shared" si="18"/>
-        <v>344</v>
+        <v>632</v>
       </c>
       <c r="M63">
         <f t="shared" si="4"/>
@@ -3355,27 +3355,27 @@
       </c>
       <c r="N63">
         <f t="shared" si="5"/>
-        <v>528</v>
-      </c>
-      <c r="O63" s="12">
-        <f t="shared" si="6"/>
-        <v>608</v>
+        <v>1104</v>
+      </c>
+      <c r="O63" s="7">
+        <f t="shared" si="6"/>
+        <v>1184</v>
       </c>
     </row>
     <row r="64" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C64" s="13"/>
-      <c r="E64" s="14"/>
+      <c r="C64" s="8"/>
+      <c r="E64" s="9"/>
       <c r="G64">
         <f>E62</f>
         <v>40</v>
       </c>
       <c r="H64">
         <f>F62+3</f>
-        <v>135</v>
-      </c>
-      <c r="I64" s="12">
+        <v>279</v>
+      </c>
+      <c r="I64" s="7">
         <f t="shared" si="15"/>
-        <v>175</v>
+        <v>319</v>
       </c>
       <c r="J64">
         <f t="shared" si="16"/>
@@ -3383,11 +3383,11 @@
       </c>
       <c r="K64">
         <f t="shared" si="17"/>
-        <v>270</v>
-      </c>
-      <c r="L64" s="15">
+        <v>558</v>
+      </c>
+      <c r="L64" s="10">
         <f t="shared" si="18"/>
-        <v>310</v>
+        <v>598</v>
       </c>
       <c r="M64">
         <f t="shared" si="4"/>
@@ -3395,41 +3395,41 @@
       </c>
       <c r="N64">
         <f t="shared" si="5"/>
-        <v>540</v>
-      </c>
-      <c r="O64" s="12">
-        <f t="shared" si="6"/>
-        <v>580</v>
+        <v>1116</v>
+      </c>
+      <c r="O64" s="7">
+        <f t="shared" si="6"/>
+        <v>1156</v>
       </c>
     </row>
     <row r="65" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="20"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21">
+      <c r="C65" s="15"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16">
         <f>E62</f>
         <v>40</v>
       </c>
-      <c r="H65" s="21">
+      <c r="H65" s="16">
         <f>F62*2</f>
-        <v>264</v>
-      </c>
-      <c r="I65" s="23">
+        <v>552</v>
+      </c>
+      <c r="I65" s="18">
         <f t="shared" si="15"/>
-        <v>304</v>
-      </c>
-      <c r="J65" s="21">
+        <v>592</v>
+      </c>
+      <c r="J65" s="16">
         <f t="shared" si="16"/>
         <v>40</v>
       </c>
-      <c r="K65" s="21">
+      <c r="K65" s="16">
         <f t="shared" si="17"/>
-        <v>528</v>
-      </c>
-      <c r="L65" s="24">
+        <v>1104</v>
+      </c>
+      <c r="L65" s="19">
         <f t="shared" si="18"/>
-        <v>568</v>
+        <v>1144</v>
       </c>
       <c r="M65">
         <f t="shared" si="4"/>
@@ -3437,11 +3437,11 @@
       </c>
       <c r="N65">
         <f t="shared" si="5"/>
-        <v>1056</v>
-      </c>
-      <c r="O65" s="12">
-        <f t="shared" si="6"/>
-        <v>1096</v>
+        <v>2208</v>
+      </c>
+      <c r="O65" s="7">
+        <f t="shared" si="6"/>
+        <v>2248</v>
       </c>
     </row>
   </sheetData>
